--- a/medicine/Psychotrope/Budweiser/Budweiser.xlsx
+++ b/medicine/Psychotrope/Budweiser/Budweiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le terme Budweiser désigne trois marques de bières concurrentes :
 la Budweiser Bier produite en République tchèque (fondée en 1795 et ayant commencé à exporter aux États-Unis en 1871) ;
@@ -513,12 +525,14 @@
           <t>Conflit commercial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit du plus ancien conflit commercial encore irrésolu à ce jour, puisque les premières traces de procès datent de 1880. Aujourd'hui, le nombre de procès entre les deux compagnies (Anheuser-Busch et Budějovický Budvar národní podnik) est estimé à 110, même si, depuis 1907, un compromis entre les deux sociétés réserve le nom Budweiser à la marque bohémienne (devenue tchèque depuis) en Europe (excepté pour les îles Britanniques où les deux compagnies peuvent utiliser le nom) et à la marque américaine aux États-Unis et au Canada. En Europe, la bière américaine est distribuée sous les noms d’Anheuser-Busch B en Allemagne, en Autriche et en Suisse et sous le nom de Bud dans les autres pays. Les Tchèques ont toujours avancé que Budweiser n'est pas un nom générique mais doit se rapporter à une bière brassée à Budweis (České Budějovice).
-Un accord signé le 8 janvier 2007 entre Anheuser-Busch et Budějovický Budvar Národní Podnik (BBNP) avait marqué une évolution importante dans le conflit commercial entre les deux brasseurs. Anheuser-Busch devient l'importateur américain de la bière Czechvar Premium (nom de la Budweiser Budvar aux États-Unis) et intègre la marque à sa force de vente permettant ainsi un positionnement fort sur le segment des bières importées aux États-Unis, segment en forte croissance : 7 % en 2005 et plus de 10 % en 2006. Le partenariat avec AB InBev s'est terminé en janvier 2012, et en juillet de cette année, United States Beverage a pris la responsabilité des ventes et de la mercatique de Czechvar aux États-Unis[1].
-Un verdict de la Cour européenne de justice de juillet 2010 stipule que Budweiser Budvar a l’usage exclusif de la marque Budweiser dans l'ensemble de l'Union européenne[2],[3].
-En janvier 2013, Budweiser Budvar a gagné 89 de ses 124 procès avec Anheuser-Busch et huit se sont terminés par une conciliation[4].
+Un accord signé le 8 janvier 2007 entre Anheuser-Busch et Budějovický Budvar Národní Podnik (BBNP) avait marqué une évolution importante dans le conflit commercial entre les deux brasseurs. Anheuser-Busch devient l'importateur américain de la bière Czechvar Premium (nom de la Budweiser Budvar aux États-Unis) et intègre la marque à sa force de vente permettant ainsi un positionnement fort sur le segment des bières importées aux États-Unis, segment en forte croissance : 7 % en 2005 et plus de 10 % en 2006. Le partenariat avec AB InBev s'est terminé en janvier 2012, et en juillet de cette année, United States Beverage a pris la responsabilité des ventes et de la mercatique de Czechvar aux États-Unis.
+Un verdict de la Cour européenne de justice de juillet 2010 stipule que Budweiser Budvar a l’usage exclusif de la marque Budweiser dans l'ensemble de l'Union européenne,.
+En janvier 2013, Budweiser Budvar a gagné 89 de ses 124 procès avec Anheuser-Busch et huit se sont terminés par une conciliation.
 </t>
         </is>
       </c>
